--- a/03_works/01_問題/01_np/nput76/nput76_variety.xlsx
+++ b/03_works/01_問題/01_np/nput76/nput76_variety.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梶原裕希\Documents\GitHub\citizen_puzzle\03_works\01_問題\01_np\nput76\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA922E72-4920-47D8-8B84-2F737971F91D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4262C6-BE7F-43B5-A330-DA88D51EB8D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10170" windowHeight="7410" activeTab="1" xr2:uid="{3CEB9AE4-0A2C-4C92-92B6-F254893B1200}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10170" windowHeight="7410" firstSheet="8" activeTab="13" xr2:uid="{3CEB9AE4-0A2C-4C92-92B6-F254893B1200}"/>
   </bookViews>
   <sheets>
     <sheet name="例題&amp;ルール" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="T-18(答え)" sheetId="11" r:id="rId11"/>
     <sheet name="T-19(問題)" sheetId="12" r:id="rId12"/>
     <sheet name="T-19(答え)" sheetId="13" r:id="rId13"/>
+    <sheet name="T-20(問題)" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>T-14(問題)</t>
     <rPh sb="5" eb="7">
@@ -213,6 +214,13 @@
     <t>T-19(答え)</t>
     <rPh sb="5" eb="6">
       <t>コタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T-20(問題)</t>
+    <rPh sb="5" eb="7">
+      <t>モンダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2836,11 +2844,253 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F4AF53-3005-428E-BB59-6B5AA8BB7105}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="13" width="5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13">
+        <v>13</v>
+      </c>
+      <c r="D2" s="13">
+        <v>20</v>
+      </c>
+      <c r="E2" s="13">
+        <v>12</v>
+      </c>
+      <c r="F2" s="13">
+        <v>12</v>
+      </c>
+      <c r="G2" s="13">
+        <v>19</v>
+      </c>
+      <c r="H2" s="13">
+        <v>14</v>
+      </c>
+      <c r="I2" s="13">
+        <v>12</v>
+      </c>
+      <c r="J2" s="13">
+        <v>22</v>
+      </c>
+      <c r="K2" s="13">
+        <v>11</v>
+      </c>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="13">
+        <v>22</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="13">
+        <v>16</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13">
+        <v>15</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="13">
+        <v>10</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="13">
+        <v>20</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="13">
+        <v>22</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="13">
+        <v>11</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="13">
+        <v>12</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13">
+        <v>12</v>
+      </c>
+      <c r="D12" s="13">
+        <v>14</v>
+      </c>
+      <c r="E12" s="13">
+        <v>19</v>
+      </c>
+      <c r="F12" s="13">
+        <v>11</v>
+      </c>
+      <c r="G12" s="13">
+        <v>18</v>
+      </c>
+      <c r="H12" s="13">
+        <v>16</v>
+      </c>
+      <c r="I12" s="13">
+        <v>24</v>
+      </c>
+      <c r="J12" s="13">
+        <v>8</v>
+      </c>
+      <c r="K12" s="13">
+        <v>13</v>
+      </c>
+      <c r="L12" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3FBAFA-E81B-465F-AC3C-8EB5A2983564}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12:J12"/>
     </sheetView>
   </sheetViews>
